--- a/Analyzed/try6/data_2010.xlsx
+++ b/Analyzed/try6/data_2010.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>65.67806827582113</v>
       </c>
       <c r="N2">
-        <v>213.388</v>
+        <v>482.608</v>
       </c>
       <c r="O2">
-        <v>1009.15</v>
+        <v>-90.84999999999999</v>
       </c>
       <c r="P2">
-        <v>524.5958952</v>
+        <v>456.8039242865412</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>2</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -592,6 +597,9 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>60.83049644865749</v>
       </c>
       <c r="N3">
-        <v>232.12</v>
+        <v>464.2400000000001</v>
       </c>
       <c r="O3">
-        <v>914.9399999999999</v>
+        <v>-85.06</v>
       </c>
       <c r="P3">
-        <v>465.2434152</v>
+        <v>365.8897143928418</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -665,13 +673,13 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -680,10 +688,13 @@
         <v>2</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>52.67535219816214</v>
       </c>
       <c r="N4">
-        <v>138.796</v>
+        <v>466.872</v>
       </c>
       <c r="O4">
-        <v>1140.8</v>
+        <v>-159.2</v>
       </c>
       <c r="P4">
-        <v>465.4224144</v>
+        <v>370.9481772520912</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,28 +764,31 @@
         <v>5</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>59.67543826991535</v>
       </c>
       <c r="N5">
-        <v>-97.66400000000002</v>
+        <v>297.696</v>
       </c>
       <c r="O5">
-        <v>895.3200000000001</v>
+        <v>-204.68</v>
       </c>
       <c r="P5">
-        <v>459.27162</v>
+        <v>349.9591049865045</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -853,19 +867,22 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>66.27104670484444</v>
       </c>
       <c r="N6">
-        <v>152.628</v>
+        <v>333.928</v>
       </c>
       <c r="O6">
-        <v>951.5599999999999</v>
+        <v>-98.44</v>
       </c>
       <c r="P6">
-        <v>482.0175216</v>
+        <v>373.5534578383548</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -938,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>3</v>
@@ -947,16 +964,19 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>63.01561723935215</v>
       </c>
       <c r="N7">
-        <v>99.54000000000001</v>
+        <v>378.84</v>
       </c>
       <c r="O7">
-        <v>1261.35</v>
+        <v>-188.65</v>
       </c>
       <c r="P7">
-        <v>416.7051264</v>
+        <v>313.8719433467893</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,19 +1046,19 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1047,6 +1067,9 @@
         <v>1</v>
       </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>0</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>60.28419101635071</v>
       </c>
       <c r="N8">
-        <v>157.584</v>
+        <v>369.768</v>
       </c>
       <c r="O8">
-        <v>981.1799999999999</v>
+        <v>-118.82</v>
       </c>
       <c r="P8">
-        <v>436.206384</v>
+        <v>329.3091446186368</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1129,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1139,6 +1162,9 @@
       </c>
       <c r="AC8">
         <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>73.75570596072092</v>
       </c>
       <c r="N9">
-        <v>22.59600000000002</v>
+        <v>312.76</v>
       </c>
       <c r="O9">
-        <v>1113.6</v>
+        <v>-186.4</v>
       </c>
       <c r="P9">
-        <v>418.2015311999999</v>
+        <v>311.7733240034862</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1211,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1229,6 +1255,9 @@
         <v>0</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0</v>
       </c>
     </row>
